--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Osm-Osmr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Osm-Osmr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Osmr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>27.915355603188</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H2">
-        <v>27.915355603188</v>
+        <v>0.012773</v>
       </c>
       <c r="I2">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="J2">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.6761558201586</v>
+        <v>34.53694666666667</v>
       </c>
       <c r="N2">
-        <v>29.6761558201586</v>
+        <v>103.61084</v>
       </c>
       <c r="O2">
-        <v>0.2468780074152728</v>
+        <v>0.2697205389345979</v>
       </c>
       <c r="P2">
-        <v>0.2468780074152728</v>
+        <v>0.2697205389345977</v>
       </c>
       <c r="Q2">
-        <v>828.4204426553446</v>
+        <v>0.1470468065911111</v>
       </c>
       <c r="R2">
-        <v>828.4204426553446</v>
+        <v>1.32342125932</v>
       </c>
       <c r="S2">
-        <v>0.06698673126969014</v>
+        <v>1.024933595953838E-05</v>
       </c>
       <c r="T2">
-        <v>0.06698673126969014</v>
+        <v>1.024933595953838E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>27.915355603188</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H3">
-        <v>27.915355603188</v>
+        <v>0.012773</v>
       </c>
       <c r="I3">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="J3">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>64.92857208211289</v>
+        <v>65.07331733333334</v>
       </c>
       <c r="N3">
-        <v>64.92857208211289</v>
+        <v>195.219952</v>
       </c>
       <c r="O3">
-        <v>0.5401453138705508</v>
+        <v>0.5081980868432909</v>
       </c>
       <c r="P3">
-        <v>0.5401453138705508</v>
+        <v>0.5081980868432907</v>
       </c>
       <c r="Q3">
-        <v>1812.504178479406</v>
+        <v>0.2770604940995556</v>
       </c>
       <c r="R3">
-        <v>1812.504178479406</v>
+        <v>2.493544446896</v>
       </c>
       <c r="S3">
-        <v>0.1465605193660139</v>
+        <v>1.931144341704938E-05</v>
       </c>
       <c r="T3">
-        <v>0.1465605193660139</v>
+        <v>1.931144341704938E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,185 +652,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>27.915355603188</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H4">
-        <v>27.915355603188</v>
+        <v>0.012773</v>
       </c>
       <c r="I4">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="J4">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>25.601021207816</v>
+        <v>0.01642466666666667</v>
       </c>
       <c r="N4">
-        <v>25.601021207816</v>
+        <v>0.049274</v>
       </c>
       <c r="O4">
-        <v>0.2129766787141764</v>
+        <v>0.0001282704573716744</v>
       </c>
       <c r="P4">
-        <v>0.2129766787141764</v>
+        <v>0.0001282704573716743</v>
       </c>
       <c r="Q4">
-        <v>714.6616108209412</v>
+        <v>6.993075577777778E-05</v>
       </c>
       <c r="R4">
-        <v>714.6616108209412</v>
+        <v>0.000629376802</v>
       </c>
       <c r="S4">
-        <v>0.05778810228219253</v>
+        <v>4.874256207847501E-09</v>
       </c>
       <c r="T4">
-        <v>0.05778810228219253</v>
+        <v>4.874256207847501E-09</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>33.7303530448</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H5">
-        <v>33.7303530448</v>
+        <v>0.012773</v>
       </c>
       <c r="I5">
-        <v>0.3278567315263162</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="J5">
-        <v>0.3278567315263162</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>29.6761558201586</v>
+        <v>0.1328866666666667</v>
       </c>
       <c r="N5">
-        <v>29.6761558201586</v>
+        <v>0.39866</v>
       </c>
       <c r="O5">
-        <v>0.2468780074152728</v>
+        <v>0.00103779479108235</v>
       </c>
       <c r="P5">
-        <v>0.2468780074152728</v>
+        <v>0.001037794791082349</v>
       </c>
       <c r="Q5">
-        <v>1000.987212826446</v>
+        <v>0.0005657871311111111</v>
       </c>
       <c r="R5">
-        <v>1000.987212826446</v>
+        <v>0.00509208418</v>
       </c>
       <c r="S5">
-        <v>0.08094061659690099</v>
+        <v>3.943603076308977E-08</v>
       </c>
       <c r="T5">
-        <v>0.08094061659690099</v>
+        <v>3.943603076308975E-08</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>33.7303530448</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H6">
-        <v>33.7303530448</v>
+        <v>0.012773</v>
       </c>
       <c r="I6">
-        <v>0.3278567315263162</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="J6">
-        <v>0.3278567315263162</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>64.92857208211289</v>
+        <v>28.287576</v>
       </c>
       <c r="N6">
-        <v>64.92857208211289</v>
+        <v>84.862728</v>
       </c>
       <c r="O6">
-        <v>0.5401453138705508</v>
+        <v>0.2209153089736574</v>
       </c>
       <c r="P6">
-        <v>0.5401453138705508</v>
+        <v>0.2209153089736574</v>
       </c>
       <c r="Q6">
-        <v>2190.063659024413</v>
+        <v>0.120439069416</v>
       </c>
       <c r="R6">
-        <v>2190.063659024413</v>
+        <v>1.083951624744</v>
       </c>
       <c r="S6">
-        <v>0.177090277154855</v>
+        <v>8.394745276796566E-06</v>
       </c>
       <c r="T6">
-        <v>0.177090277154855</v>
+        <v>8.394745276796565E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,247 +838,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>33.7303530448</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H7">
-        <v>33.7303530448</v>
+        <v>1.503156</v>
       </c>
       <c r="I7">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="J7">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.601021207816</v>
+        <v>34.53694666666667</v>
       </c>
       <c r="N7">
-        <v>25.601021207816</v>
+        <v>103.61084</v>
       </c>
       <c r="O7">
-        <v>0.2129766787141764</v>
+        <v>0.2697205389345979</v>
       </c>
       <c r="P7">
-        <v>0.2129766787141764</v>
+        <v>0.2697205389345977</v>
       </c>
       <c r="Q7">
-        <v>863.5314836470458</v>
+        <v>17.30480620122667</v>
       </c>
       <c r="R7">
-        <v>863.5314836470458</v>
+        <v>155.74325581104</v>
       </c>
       <c r="S7">
-        <v>0.06982583777456024</v>
+        <v>0.001206165414827831</v>
       </c>
       <c r="T7">
-        <v>0.06982583777456024</v>
+        <v>0.00120616541482783</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>41.2356715444225</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H8">
-        <v>41.2356715444225</v>
+        <v>1.503156</v>
       </c>
       <c r="I8">
-        <v>0.4008079155557872</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="J8">
-        <v>0.4008079155557872</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.6761558201586</v>
+        <v>65.07331733333334</v>
       </c>
       <c r="N8">
-        <v>29.6761558201586</v>
+        <v>195.219952</v>
       </c>
       <c r="O8">
-        <v>0.2468780074152728</v>
+        <v>0.5081980868432909</v>
       </c>
       <c r="P8">
-        <v>0.2468780074152728</v>
+        <v>0.5081980868432907</v>
       </c>
       <c r="Q8">
-        <v>1223.716214101162</v>
+        <v>32.60511579650134</v>
       </c>
       <c r="R8">
-        <v>1223.716214101162</v>
+        <v>293.4460421685121</v>
       </c>
       <c r="S8">
-        <v>0.09895065954868164</v>
+        <v>0.002272615050575299</v>
       </c>
       <c r="T8">
-        <v>0.09895065954868164</v>
+        <v>0.002272615050575298</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>41.2356715444225</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H9">
-        <v>41.2356715444225</v>
+        <v>1.503156</v>
       </c>
       <c r="I9">
-        <v>0.4008079155557872</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="J9">
-        <v>0.4008079155557872</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>64.92857208211289</v>
+        <v>0.01642466666666667</v>
       </c>
       <c r="N9">
-        <v>64.92857208211289</v>
+        <v>0.049274</v>
       </c>
       <c r="O9">
-        <v>0.5401453138705508</v>
+        <v>0.0001282704573716744</v>
       </c>
       <c r="P9">
-        <v>0.5401453138705508</v>
+        <v>0.0001282704573716743</v>
       </c>
       <c r="Q9">
-        <v>2677.373272226368</v>
+        <v>0.008229612082666668</v>
       </c>
       <c r="R9">
-        <v>2677.373272226368</v>
+        <v>0.074066508744</v>
       </c>
       <c r="S9">
-        <v>0.2164945173496819</v>
+        <v>5.736136744980209E-07</v>
       </c>
       <c r="T9">
-        <v>0.2164945173496819</v>
+        <v>5.736136744980207E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.5010520000000001</v>
+      </c>
+      <c r="H10">
+        <v>1.503156</v>
+      </c>
+      <c r="I10">
+        <v>0.004471907922148647</v>
+      </c>
+      <c r="J10">
+        <v>0.004471907922148647</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1328866666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.39866</v>
+      </c>
+      <c r="O10">
+        <v>0.00103779479108235</v>
+      </c>
+      <c r="P10">
+        <v>0.001037794791082349</v>
+      </c>
+      <c r="Q10">
+        <v>0.06658313010666668</v>
+      </c>
+      <c r="R10">
+        <v>0.59924817096</v>
+      </c>
+      <c r="S10">
+        <v>4.640922747805761E-06</v>
+      </c>
+      <c r="T10">
+        <v>4.640922747805759E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.5010520000000001</v>
+      </c>
+      <c r="H11">
+        <v>1.503156</v>
+      </c>
+      <c r="I11">
+        <v>0.004471907922148647</v>
+      </c>
+      <c r="J11">
+        <v>0.004471907922148647</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>28.287576</v>
+      </c>
+      <c r="N11">
+        <v>84.862728</v>
+      </c>
+      <c r="O11">
+        <v>0.2209153089736574</v>
+      </c>
+      <c r="P11">
+        <v>0.2209153089736574</v>
+      </c>
+      <c r="Q11">
+        <v>14.173546529952</v>
+      </c>
+      <c r="R11">
+        <v>127.561918769568</v>
+      </c>
+      <c r="S11">
+        <v>0.0009879129203232149</v>
+      </c>
+      <c r="T11">
+        <v>0.0009879129203232146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>34.32411866666666</v>
+      </c>
+      <c r="H12">
+        <v>102.972356</v>
+      </c>
+      <c r="I12">
+        <v>0.3063440484944415</v>
+      </c>
+      <c r="J12">
+        <v>0.3063440484944415</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>34.53694666666667</v>
+      </c>
+      <c r="N12">
+        <v>103.61084</v>
+      </c>
+      <c r="O12">
+        <v>0.2697205389345979</v>
+      </c>
+      <c r="P12">
+        <v>0.2697205389345977</v>
+      </c>
+      <c r="Q12">
+        <v>1185.450255771005</v>
+      </c>
+      <c r="R12">
+        <v>10669.05230193904</v>
+      </c>
+      <c r="S12">
+        <v>0.08262728185932733</v>
+      </c>
+      <c r="T12">
+        <v>0.0826272818593273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>34.32411866666666</v>
+      </c>
+      <c r="H13">
+        <v>102.972356</v>
+      </c>
+      <c r="I13">
+        <v>0.3063440484944415</v>
+      </c>
+      <c r="J13">
+        <v>0.3063440484944415</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>65.07331733333334</v>
+      </c>
+      <c r="N13">
+        <v>195.219952</v>
+      </c>
+      <c r="O13">
+        <v>0.5081980868432909</v>
+      </c>
+      <c r="P13">
+        <v>0.5081980868432907</v>
+      </c>
+      <c r="Q13">
+        <v>2233.58426618299</v>
+      </c>
+      <c r="R13">
+        <v>20102.25839564691</v>
+      </c>
+      <c r="S13">
+        <v>0.1556834593607035</v>
+      </c>
+      <c r="T13">
+        <v>0.1556834593607034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>34.32411866666666</v>
+      </c>
+      <c r="H14">
+        <v>102.972356</v>
+      </c>
+      <c r="I14">
+        <v>0.3063440484944415</v>
+      </c>
+      <c r="J14">
+        <v>0.3063440484944415</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01642466666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.049274</v>
+      </c>
+      <c r="O14">
+        <v>0.0001282704573716744</v>
+      </c>
+      <c r="P14">
+        <v>0.0001282704573716743</v>
+      </c>
+      <c r="Q14">
+        <v>0.5637622077271111</v>
+      </c>
+      <c r="R14">
+        <v>5.073859869543999</v>
+      </c>
+      <c r="S14">
+        <v>3.929489121347239E-05</v>
+      </c>
+      <c r="T14">
+        <v>3.929489121347239E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>34.32411866666666</v>
+      </c>
+      <c r="H15">
+        <v>102.972356</v>
+      </c>
+      <c r="I15">
+        <v>0.3063440484944415</v>
+      </c>
+      <c r="J15">
+        <v>0.3063440484944415</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1328866666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.39866</v>
+      </c>
+      <c r="O15">
+        <v>0.00103779479108235</v>
+      </c>
+      <c r="P15">
+        <v>0.001037794791082349</v>
+      </c>
+      <c r="Q15">
+        <v>4.561217715884444</v>
+      </c>
+      <c r="R15">
+        <v>41.05095944296</v>
+      </c>
+      <c r="S15">
+        <v>0.0003179222578066101</v>
+      </c>
+      <c r="T15">
+        <v>0.00031792225780661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>41.2356715444225</v>
-      </c>
-      <c r="H10">
-        <v>41.2356715444225</v>
-      </c>
-      <c r="I10">
-        <v>0.4008079155557872</v>
-      </c>
-      <c r="J10">
-        <v>0.4008079155557872</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>25.601021207816</v>
-      </c>
-      <c r="N10">
-        <v>25.601021207816</v>
-      </c>
-      <c r="O10">
-        <v>0.2129766787141764</v>
-      </c>
-      <c r="P10">
-        <v>0.2129766787141764</v>
-      </c>
-      <c r="Q10">
-        <v>1055.675301727295</v>
-      </c>
-      <c r="R10">
-        <v>1055.675301727295</v>
-      </c>
-      <c r="S10">
-        <v>0.08536273865742362</v>
-      </c>
-      <c r="T10">
-        <v>0.08536273865742362</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>34.32411866666666</v>
+      </c>
+      <c r="H16">
+        <v>102.972356</v>
+      </c>
+      <c r="I16">
+        <v>0.3063440484944415</v>
+      </c>
+      <c r="J16">
+        <v>0.3063440484944415</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>28.287576</v>
+      </c>
+      <c r="N16">
+        <v>84.862728</v>
+      </c>
+      <c r="O16">
+        <v>0.2209153089736574</v>
+      </c>
+      <c r="P16">
+        <v>0.2209153089736574</v>
+      </c>
+      <c r="Q16">
+        <v>970.946115416352</v>
+      </c>
+      <c r="R16">
+        <v>8738.515038747168</v>
+      </c>
+      <c r="S16">
+        <v>0.06767609012539064</v>
+      </c>
+      <c r="T16">
+        <v>0.06767609012539062</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>34.201962</v>
+      </c>
+      <c r="H17">
+        <v>102.605886</v>
+      </c>
+      <c r="I17">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="J17">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>34.53694666666667</v>
+      </c>
+      <c r="N17">
+        <v>103.61084</v>
+      </c>
+      <c r="O17">
+        <v>0.2697205389345979</v>
+      </c>
+      <c r="P17">
+        <v>0.2697205389345977</v>
+      </c>
+      <c r="Q17">
+        <v>1181.23133748936</v>
+      </c>
+      <c r="R17">
+        <v>10631.08203740424</v>
+      </c>
+      <c r="S17">
+        <v>0.08233321827605858</v>
+      </c>
+      <c r="T17">
+        <v>0.08233321827605854</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>34.201962</v>
+      </c>
+      <c r="H18">
+        <v>102.605886</v>
+      </c>
+      <c r="I18">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="J18">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>65.07331733333334</v>
+      </c>
+      <c r="N18">
+        <v>195.219952</v>
+      </c>
+      <c r="O18">
+        <v>0.5081980868432909</v>
+      </c>
+      <c r="P18">
+        <v>0.5081980868432907</v>
+      </c>
+      <c r="Q18">
+        <v>2225.635126648608</v>
+      </c>
+      <c r="R18">
+        <v>20030.71613983747</v>
+      </c>
+      <c r="S18">
+        <v>0.155129394953826</v>
+      </c>
+      <c r="T18">
+        <v>0.155129394953826</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>34.201962</v>
+      </c>
+      <c r="H19">
+        <v>102.605886</v>
+      </c>
+      <c r="I19">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="J19">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.01642466666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.049274</v>
+      </c>
+      <c r="O19">
+        <v>0.0001282704573716744</v>
+      </c>
+      <c r="P19">
+        <v>0.0001282704573716743</v>
+      </c>
+      <c r="Q19">
+        <v>0.5617558251960001</v>
+      </c>
+      <c r="R19">
+        <v>5.055802426764</v>
+      </c>
+      <c r="S19">
+        <v>3.915504398318274E-05</v>
+      </c>
+      <c r="T19">
+        <v>3.915504398318273E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>34.201962</v>
+      </c>
+      <c r="H20">
+        <v>102.605886</v>
+      </c>
+      <c r="I20">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="J20">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1328866666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.39866</v>
+      </c>
+      <c r="O20">
+        <v>0.00103779479108235</v>
+      </c>
+      <c r="P20">
+        <v>0.001037794791082349</v>
+      </c>
+      <c r="Q20">
+        <v>4.544984723640001</v>
+      </c>
+      <c r="R20">
+        <v>40.90486251276</v>
+      </c>
+      <c r="S20">
+        <v>0.0003167907990894921</v>
+      </c>
+      <c r="T20">
+        <v>0.000316790799089492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>34.201962</v>
+      </c>
+      <c r="H21">
+        <v>102.605886</v>
+      </c>
+      <c r="I21">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="J21">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>28.287576</v>
+      </c>
+      <c r="N21">
+        <v>84.862728</v>
+      </c>
+      <c r="O21">
+        <v>0.2209153089736574</v>
+      </c>
+      <c r="P21">
+        <v>0.2209153089736574</v>
+      </c>
+      <c r="Q21">
+        <v>967.4905994241121</v>
+      </c>
+      <c r="R21">
+        <v>8707.415394817008</v>
+      </c>
+      <c r="S21">
+        <v>0.06743523658263736</v>
+      </c>
+      <c r="T21">
+        <v>0.06743523658263735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>43.012956</v>
+      </c>
+      <c r="H22">
+        <v>129.038868</v>
+      </c>
+      <c r="I22">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="J22">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>34.53694666666667</v>
+      </c>
+      <c r="N22">
+        <v>103.61084</v>
+      </c>
+      <c r="O22">
+        <v>0.2697205389345979</v>
+      </c>
+      <c r="P22">
+        <v>0.2697205389345977</v>
+      </c>
+      <c r="Q22">
+        <v>1485.53616734768</v>
+      </c>
+      <c r="R22">
+        <v>13369.82550612912</v>
+      </c>
+      <c r="S22">
+        <v>0.1035436240484246</v>
+      </c>
+      <c r="T22">
+        <v>0.1035436240484245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>43.012956</v>
+      </c>
+      <c r="H23">
+        <v>129.038868</v>
+      </c>
+      <c r="I23">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="J23">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>65.07331733333334</v>
+      </c>
+      <c r="N23">
+        <v>195.219952</v>
+      </c>
+      <c r="O23">
+        <v>0.5081980868432909</v>
+      </c>
+      <c r="P23">
+        <v>0.5081980868432907</v>
+      </c>
+      <c r="Q23">
+        <v>2798.995735232704</v>
+      </c>
+      <c r="R23">
+        <v>25190.96161709434</v>
+      </c>
+      <c r="S23">
+        <v>0.195093306034769</v>
+      </c>
+      <c r="T23">
+        <v>0.195093306034769</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>43.012956</v>
+      </c>
+      <c r="H24">
+        <v>129.038868</v>
+      </c>
+      <c r="I24">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="J24">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.01642466666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.049274</v>
+      </c>
+      <c r="O24">
+        <v>0.0001282704573716744</v>
+      </c>
+      <c r="P24">
+        <v>0.0001282704573716743</v>
+      </c>
+      <c r="Q24">
+        <v>0.7064734646480001</v>
+      </c>
+      <c r="R24">
+        <v>6.358261181832</v>
+      </c>
+      <c r="S24">
+        <v>4.924203424431335E-05</v>
+      </c>
+      <c r="T24">
+        <v>4.924203424431334E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>43.012956</v>
+      </c>
+      <c r="H25">
+        <v>129.038868</v>
+      </c>
+      <c r="I25">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="J25">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.1328866666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.39866</v>
+      </c>
+      <c r="O25">
+        <v>0.00103779479108235</v>
+      </c>
+      <c r="P25">
+        <v>0.001037794791082349</v>
+      </c>
+      <c r="Q25">
+        <v>5.715848346320001</v>
+      </c>
+      <c r="R25">
+        <v>51.44263511688001</v>
+      </c>
+      <c r="S25">
+        <v>0.0003984013754076787</v>
+      </c>
+      <c r="T25">
+        <v>0.0003984013754076786</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>43.012956</v>
+      </c>
+      <c r="H26">
+        <v>129.038868</v>
+      </c>
+      <c r="I26">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="J26">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>28.287576</v>
+      </c>
+      <c r="N26">
+        <v>84.862728</v>
+      </c>
+      <c r="O26">
+        <v>0.2209153089736574</v>
+      </c>
+      <c r="P26">
+        <v>0.2209153089736574</v>
+      </c>
+      <c r="Q26">
+        <v>1216.732261834656</v>
+      </c>
+      <c r="R26">
+        <v>10950.59035651191</v>
+      </c>
+      <c r="S26">
+        <v>0.08480767460002941</v>
+      </c>
+      <c r="T26">
+        <v>0.0848076746000294</v>
       </c>
     </row>
   </sheetData>
